--- a/sqlpad/cache/gT8IVTheryUHI8nO.xlsx
+++ b/sqlpad/cache/gT8IVTheryUHI8nO.xlsx
@@ -390,16 +390,16 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
-        <v>arwiki</v>
+        <v>commonswiki</v>
       </c>
       <c r="C2" t="str">
-        <v>JarBot</v>
+        <v>Anvilaquarius</v>
       </c>
       <c r="D2" t="str">
-        <v>1092</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="3">
@@ -410,10 +410,10 @@
         <v>wikidatawiki</v>
       </c>
       <c r="C3" t="str">
-        <v>Research Bot</v>
+        <v>QuickStatementsBot</v>
       </c>
       <c r="D3" t="str">
-        <v>472</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4">
@@ -424,24 +424,24 @@
         <v>wikidatawiki</v>
       </c>
       <c r="C4" t="str">
-        <v>BotMultichill</v>
+        <v>Mr.Ibrahembot</v>
       </c>
       <c r="D4" t="str">
-        <v>411</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="str">
         <v>wikidatawiki</v>
       </c>
       <c r="C5" t="str">
-        <v>SuccuBot</v>
+        <v>Vojtěch Dostál</v>
       </c>
       <c r="D5" t="str">
-        <v>333</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6">
@@ -452,10 +452,10 @@
         <v>wikidatawiki</v>
       </c>
       <c r="C6" t="str">
-        <v>Edoderoobot</v>
+        <v>Research Bot</v>
       </c>
       <c r="D6" t="str">
-        <v>257</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>wikidatawiki</v>
+        <v>commonswiki</v>
       </c>
       <c r="C7" t="str">
-        <v>Mr.Ibrahembot</v>
+        <v>SchlurcherBot</v>
       </c>
       <c r="D7" t="str">
-        <v>255</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
@@ -477,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>rowiki</v>
+        <v>commonswiki</v>
       </c>
       <c r="C8" t="str">
-        <v>Andrebot</v>
+        <v>KolbertBot</v>
       </c>
       <c r="D8" t="str">
-        <v>220</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9">
@@ -491,13 +491,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="str">
-        <v>commonswiki</v>
+        <v>cebwiki</v>
       </c>
       <c r="C9" t="str">
-        <v>SchlurcherBot</v>
+        <v>Lsjbot</v>
       </c>
       <c r="D9" t="str">
-        <v>216</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10">
@@ -505,27 +505,27 @@
         <v>1</v>
       </c>
       <c r="B10" t="str">
-        <v>commonswiki</v>
+        <v>arwiki</v>
       </c>
       <c r="C10" t="str">
-        <v>KolbertBot</v>
+        <v>JarBot</v>
       </c>
       <c r="D10" t="str">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v>commonswiki</v>
+        <v>wikidatawiki</v>
       </c>
       <c r="C11" t="str">
-        <v>Thesupermat</v>
+        <v>Dcirovicbot</v>
       </c>
       <c r="D11" t="str">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12">
@@ -533,27 +533,27 @@
         <v>1</v>
       </c>
       <c r="B12" t="str">
-        <v>cebwiki</v>
+        <v>wikidatawiki</v>
       </c>
       <c r="C12" t="str">
-        <v>Lsjbot</v>
+        <v>Edoderoobot</v>
       </c>
       <c r="D12" t="str">
-        <v>192</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="str">
         <v>commonswiki</v>
       </c>
       <c r="C13" t="str">
-        <v>Sakhalinio</v>
+        <v>Geograph Update Bot</v>
       </c>
       <c r="D13" t="str">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
@@ -561,13 +561,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <v>trwiki</v>
+        <v>dewiki</v>
       </c>
       <c r="C14" t="str">
-        <v>Teacher0691</v>
+        <v>Drüfft</v>
       </c>
       <c r="D14" t="str">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -578,10 +578,10 @@
         <v>commonswiki</v>
       </c>
       <c r="C15" t="str">
-        <v>StellarD</v>
+        <v>Arnaud Palastowicz</v>
       </c>
       <c r="D15" t="str">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <v>enwiki</v>
+        <v>commonswiki</v>
       </c>
       <c r="C16" t="str">
-        <v>Molestash</v>
+        <v>Reykholt</v>
       </c>
       <c r="D16" t="str">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -603,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <v>wikidatawiki</v>
+        <v>commonswiki</v>
       </c>
       <c r="C17" t="str">
-        <v>Drupol</v>
+        <v>Martin H.</v>
       </c>
       <c r="D17" t="str">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <v>frwiktionary</v>
+        <v>commonswiki</v>
       </c>
       <c r="C18" t="str">
-        <v>Arpyia</v>
+        <v>INS Pirat</v>
       </c>
       <c r="D18" t="str">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <v>elwiki</v>
+        <v>plwiktionary</v>
       </c>
       <c r="C19" t="str">
-        <v>ΖῷονΠολιτικόν</v>
+        <v>84.10.92.69</v>
       </c>
       <c r="D19" t="str">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <v>commonswiki</v>
+        <v>enwiki</v>
       </c>
       <c r="C20" t="str">
-        <v>Zinneke</v>
+        <v>Geekkurosaki</v>
       </c>
       <c r="D20" t="str">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <v>hrwiki</v>
+        <v>commonswiki</v>
       </c>
       <c r="C21" t="str">
-        <v>Kubura</v>
+        <v>Mr.Nostalgic</v>
       </c>
       <c r="D21" t="str">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
